--- a/biology/Microbiologie/Enterobacter_taylorae/Enterobacter_taylorae.xlsx
+++ b/biology/Microbiologie/Enterobacter_taylorae/Enterobacter_taylorae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Enterobacter taylorae est une espèce de bactéries à Gram négatif anciennement connue sous le nom de groupe entérique 19 et également connue sous le nom d'entérobactérie cancérogène[1]. Les souches d'E. taylorae sont positives pour : la réaction de Voges-Proskauer, l'utilisation du citrate, l'arginine dihydrolase et l'utilisation du malonate. Ils fermentent le D-glucose et fermentent également le D-mannitol, le L-rhamnose et le cellobiose. Ils sont négatifs pour la production d'indole, l'hydrolyse de l'urée, la lysine décarboxylase et la fermentation de l'adonitol, du D-sorbitol et du raffinose. Il se produit dans des échantillons cliniques humains, étant isolé du sang et du liquide céphalo-rachidien[1]. Il est connu pour provoquer des infections et n'est pas sensible aux pénicillines ni aux céphalosporines[2],[3],[4],[5].
+Enterobacter taylorae est une espèce de bactéries à Gram négatif anciennement connue sous le nom de groupe entérique 19 et également connue sous le nom d'entérobactérie cancérogène. Les souches d'E. taylorae sont positives pour : la réaction de Voges-Proskauer, l'utilisation du citrate, l'arginine dihydrolase et l'utilisation du malonate. Ils fermentent le D-glucose et fermentent également le D-mannitol, le L-rhamnose et le cellobiose. Ils sont négatifs pour la production d'indole, l'hydrolyse de l'urée, la lysine décarboxylase et la fermentation de l'adonitol, du D-sorbitol et du raffinose. Il se produit dans des échantillons cliniques humains, étant isolé du sang et du liquide céphalo-rachidien. Il est connu pour provoquer des infections et n'est pas sensible aux pénicillines ni aux céphalosporines.
 </t>
         </is>
       </c>
